--- a/测试程序/武器数据.xlsx
+++ b/测试程序/武器数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\迅雷下载\暗区突围无限\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\暗区突围无限程序\测试版本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9087740C-059C-4B0E-B5AE-A1200AF74BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DEA069-659B-467C-81C3-D79139651422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,19 +614,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1013,8 +1013,8 @@
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1028,8 +1028,8 @@
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1043,8 +1043,8 @@
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1081,8 +1081,8 @@
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1096,8 +1096,8 @@
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1134,8 +1134,8 @@
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1149,8 +1149,8 @@
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1164,8 +1164,8 @@
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1202,8 +1202,8 @@
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1381,8 +1381,8 @@
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="5" t="s">
         <v>15</v>
       </c>
@@ -1465,8 +1465,8 @@
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="5" t="s">
         <v>37</v>
       </c>
@@ -1480,8 +1480,8 @@
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="5" t="s">
         <v>38</v>
       </c>
@@ -1493,7 +1493,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -1518,8 +1518,8 @@
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="5" t="s">
         <v>15</v>
       </c>
@@ -1579,8 +1579,8 @@
     <row r="35" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
@@ -1594,8 +1594,8 @@
     <row r="36" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="5" t="s">
         <v>43</v>
       </c>
@@ -1632,8 +1632,8 @@
     <row r="38" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="5" t="s">
         <v>46</v>
       </c>
@@ -1647,8 +1647,8 @@
     <row r="39" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="5" t="s">
         <v>38</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="5">
         <v>30</v>
@@ -1754,8 +1754,8 @@
     <row r="44" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="5" t="s">
         <v>52</v>
       </c>
@@ -1769,8 +1769,8 @@
     <row r="45" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="5" t="s">
         <v>43</v>
       </c>
@@ -1828,35 +1828,35 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
     </row>
     <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
@@ -1899,8 +1899,8 @@
       <c r="B51" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="5" t="s">
         <v>11</v>
       </c>
@@ -1937,8 +1937,8 @@
     <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="5" t="s">
         <v>13</v>
       </c>
@@ -1952,8 +1952,8 @@
     <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
@@ -1967,8 +1967,8 @@
     <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="5" t="s">
         <v>15</v>
       </c>
@@ -2005,8 +2005,8 @@
     <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
@@ -2089,8 +2089,8 @@
     <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
       <c r="E61" s="5" t="s">
         <v>15</v>
       </c>
@@ -2104,8 +2104,8 @@
     <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
       <c r="E62" s="5" t="s">
         <v>16</v>
       </c>
@@ -2257,8 +2257,8 @@
     <row r="69" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
       <c r="E69" s="5" t="s">
         <v>73</v>
       </c>
@@ -2295,8 +2295,8 @@
     <row r="71" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
       <c r="E71" s="5" t="s">
         <v>52</v>
       </c>
@@ -2310,8 +2310,8 @@
     <row r="72" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="5" t="s">
         <v>16</v>
       </c>
@@ -2348,8 +2348,8 @@
     <row r="74" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
@@ -2386,8 +2386,8 @@
     <row r="76" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="5" t="s">
         <v>43</v>
       </c>
@@ -2399,35 +2399,35 @@
       </c>
     </row>
     <row r="77" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="13"/>
-      <c r="AA77" s="13"/>
-      <c r="AB77" s="13"/>
-      <c r="AC77" s="13"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
     </row>
     <row r="78" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
@@ -2512,8 +2512,8 @@
     <row r="82" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
       <c r="E82" s="5" t="s">
         <v>15</v>
       </c>
@@ -2642,8 +2642,8 @@
     <row r="88" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
       <c r="E88" s="5" t="s">
         <v>14</v>
       </c>
@@ -2657,8 +2657,8 @@
     <row r="89" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
       <c r="E89" s="5" t="s">
         <v>15</v>
       </c>
@@ -2672,8 +2672,8 @@
     <row r="90" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
       <c r="E90" s="5" t="s">
         <v>16</v>
       </c>
@@ -2685,35 +2685,35 @@
       </c>
     </row>
     <row r="91" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="13"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="13"/>
-      <c r="Y91" s="13"/>
-      <c r="Z91" s="13"/>
-      <c r="AA91" s="13"/>
-      <c r="AB91" s="13"/>
-      <c r="AC91" s="13"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="15"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="15"/>
     </row>
     <row r="92" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
@@ -2798,8 +2798,8 @@
     <row r="96" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
       <c r="E96" s="5" t="s">
         <v>15</v>
       </c>
@@ -2836,8 +2836,8 @@
     <row r="98" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
       <c r="E98" s="5" t="s">
         <v>15</v>
       </c>
@@ -2895,35 +2895,35 @@
       </c>
     </row>
     <row r="101" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13"/>
-      <c r="Q101" s="13"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="13"/>
-      <c r="T101" s="13"/>
-      <c r="U101" s="13"/>
-      <c r="V101" s="13"/>
-      <c r="W101" s="13"/>
-      <c r="X101" s="13"/>
-      <c r="Y101" s="13"/>
-      <c r="Z101" s="13"/>
-      <c r="AA101" s="13"/>
-      <c r="AB101" s="13"/>
-      <c r="AC101" s="13"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="15"/>
+      <c r="S101" s="15"/>
+      <c r="T101" s="15"/>
+      <c r="U101" s="15"/>
+      <c r="V101" s="15"/>
+      <c r="W101" s="15"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="Z101" s="15"/>
+      <c r="AA101" s="15"/>
+      <c r="AB101" s="15"/>
+      <c r="AC101" s="15"/>
     </row>
     <row r="102" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
@@ -2962,8 +2962,8 @@
     <row r="104" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
       <c r="E104" s="5" t="s">
         <v>102</v>
       </c>
@@ -2977,8 +2977,8 @@
     <row r="105" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
       <c r="E105" s="5" t="s">
         <v>103</v>
       </c>
@@ -3036,35 +3036,35 @@
       </c>
     </row>
     <row r="108" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="13"/>
-      <c r="R108" s="13"/>
-      <c r="S108" s="13"/>
-      <c r="T108" s="13"/>
-      <c r="U108" s="13"/>
-      <c r="V108" s="13"/>
-      <c r="W108" s="13"/>
-      <c r="X108" s="13"/>
-      <c r="Y108" s="13"/>
-      <c r="Z108" s="13"/>
-      <c r="AA108" s="13"/>
-      <c r="AB108" s="13"/>
-      <c r="AC108" s="13"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="15"/>
+      <c r="U108" s="15"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="15"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="15"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="15"/>
     </row>
     <row r="109" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
@@ -3103,8 +3103,8 @@
     <row r="111" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
       <c r="E111" s="5" t="s">
         <v>14</v>
       </c>
@@ -3118,8 +3118,8 @@
     <row r="112" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
       <c r="E112" s="5" t="s">
         <v>111</v>
       </c>
@@ -3156,8 +3156,8 @@
     <row r="114" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
       <c r="E114" s="5" t="s">
         <v>114</v>
       </c>
@@ -3171,8 +3171,8 @@
     <row r="115" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
       <c r="E115" s="5" t="s">
         <v>115</v>
       </c>
@@ -3186,8 +3186,8 @@
     <row r="116" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
       <c r="E116" s="5" t="s">
         <v>116</v>
       </c>
@@ -3201,8 +3201,8 @@
     <row r="117" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
       <c r="E117" s="5" t="s">
         <v>117</v>
       </c>
@@ -3216,8 +3216,8 @@
     <row r="118" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
       <c r="E118" s="5" t="s">
         <v>118</v>
       </c>
@@ -3298,35 +3298,35 @@
       </c>
     </row>
     <row r="122" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
-      <c r="M122" s="13"/>
-      <c r="N122" s="13"/>
-      <c r="O122" s="13"/>
-      <c r="P122" s="13"/>
-      <c r="Q122" s="13"/>
-      <c r="R122" s="13"/>
-      <c r="S122" s="13"/>
-      <c r="T122" s="13"/>
-      <c r="U122" s="13"/>
-      <c r="V122" s="13"/>
-      <c r="W122" s="13"/>
-      <c r="X122" s="13"/>
-      <c r="Y122" s="13"/>
-      <c r="Z122" s="13"/>
-      <c r="AA122" s="13"/>
-      <c r="AB122" s="13"/>
-      <c r="AC122" s="13"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="15"/>
+      <c r="S122" s="15"/>
+      <c r="T122" s="15"/>
+      <c r="U122" s="15"/>
+      <c r="V122" s="15"/>
+      <c r="W122" s="15"/>
+      <c r="X122" s="15"/>
+      <c r="Y122" s="15"/>
+      <c r="Z122" s="15"/>
+      <c r="AA122" s="15"/>
+      <c r="AB122" s="15"/>
+      <c r="AC122" s="15"/>
     </row>
     <row r="123" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
@@ -3365,8 +3365,8 @@
     <row r="125" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
       <c r="E125" s="5" t="s">
         <v>15</v>
       </c>
@@ -3378,35 +3378,35 @@
       </c>
     </row>
     <row r="126" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
-      <c r="O126" s="13"/>
-      <c r="P126" s="13"/>
-      <c r="Q126" s="13"/>
-      <c r="R126" s="13"/>
-      <c r="S126" s="13"/>
-      <c r="T126" s="13"/>
-      <c r="U126" s="13"/>
-      <c r="V126" s="13"/>
-      <c r="W126" s="13"/>
-      <c r="X126" s="13"/>
-      <c r="Y126" s="13"/>
-      <c r="Z126" s="13"/>
-      <c r="AA126" s="13"/>
-      <c r="AB126" s="13"/>
-      <c r="AC126" s="13"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
+      <c r="O126" s="15"/>
+      <c r="P126" s="15"/>
+      <c r="Q126" s="15"/>
+      <c r="R126" s="15"/>
+      <c r="S126" s="15"/>
+      <c r="T126" s="15"/>
+      <c r="U126" s="15"/>
+      <c r="V126" s="15"/>
+      <c r="W126" s="15"/>
+      <c r="X126" s="15"/>
+      <c r="Y126" s="15"/>
+      <c r="Z126" s="15"/>
+      <c r="AA126" s="15"/>
+      <c r="AB126" s="15"/>
+      <c r="AC126" s="15"/>
     </row>
     <row r="127" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
@@ -3445,8 +3445,8 @@
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
       <c r="E129" s="5" t="s">
         <v>127</v>
       </c>
@@ -3575,8 +3575,8 @@
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
       <c r="E135" s="5" t="s">
         <v>127</v>
       </c>
@@ -3682,8 +3682,8 @@
     <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
       <c r="E140" s="5" t="s">
         <v>127</v>
       </c>
@@ -3743,8 +3743,8 @@
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
       <c r="E143" s="5" t="s">
         <v>139</v>
       </c>
@@ -3838,6 +3838,122 @@
     <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="133">
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A126:AC126"/>
+    <mergeCell ref="A127:G127"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="D113:D118"/>
+    <mergeCell ref="A122:AC122"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A108:AC108"/>
+    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="A101:AC101"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="A91:AC91"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A77:AC77"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A48:AC48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
@@ -3855,122 +3971,6 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A48:AC48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="A77:AC77"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="A91:AC91"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="A108:AC108"/>
-    <mergeCell ref="A109:G109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="A101:AC101"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A126:AC126"/>
-    <mergeCell ref="A127:G127"/>
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="B113:B118"/>
-    <mergeCell ref="C113:C118"/>
-    <mergeCell ref="D113:D118"/>
-    <mergeCell ref="A122:AC122"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
